--- a/data/WorkItem.xlsx
+++ b/data/WorkItem.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,169 +479,14 @@
           <t>ProjectName</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>WI#1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45853.79652777778</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45873.79652777778</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45852.80222456018</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>On Track</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45854.83125</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45877.83125</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45852.83151890046</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Worktwo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45854.83125</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45877.83125</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45852.83187048611</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>WorkOne</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45854.83194444444</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45874.83194444444</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45852.83230928241</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Sachin</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>111</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45854.83194444444</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45876.83194444444</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45852.83268617987</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>sa</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RemainingHours</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
         </is>
       </c>
     </row>

--- a/data/WorkItem.xlsx
+++ b/data/WorkItem.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +494,49 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45871</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45871</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45871.04612086806</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>OffTrack</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>sdsdsa</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>22</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-08-02: asds
+2025-08-02: sadsds
+2025-08-02: sdsadsadsadsds</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/WorkItem.xlsx
+++ b/data/WorkItem.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OffTrack</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,13 +527,15 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>2025-08-02: asds
 2025-08-02: sadsds
-2025-08-02: sdsadsadsadsds</t>
+2025-08-02: sdsadsadsadsds
+2025-08-02: sdsdsa
+2025-08-02: asdscd sasdads asdsdcds SAsadv sdcdv asdcsDSAdsADsa sadadDSAdDs dsdaDssds dsadsDS asdsadsad dsds sssd ss sdd ssss sasdadsasddsdsd</t>
         </is>
       </c>
     </row>
